--- a/excel_ejemplo/catalogo_producto.xlsx
+++ b/excel_ejemplo/catalogo_producto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferro\OneDrive\Escritorio\ProyectoEmpresa\excel_ejemplo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferro\OneDrive\Escritorio\puntoVenta\excel_ejemplo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7D3F1F-17FA-49AE-8CF4-AC04E9BE4B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9E2650-ED9B-4857-AC69-967478FF5C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,30 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>código</t>
   </si>
@@ -55,9 +33,6 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>imagen</t>
-  </si>
-  <si>
     <t>categoria</t>
   </si>
   <si>
@@ -67,15 +42,9 @@
     <t>precio venta</t>
   </si>
   <si>
-    <t>margen ganancia</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>tipo media</t>
-  </si>
-  <si>
     <t>tipo impuesto</t>
   </si>
   <si>
@@ -122,6 +91,9 @@
   </si>
   <si>
     <t>KILO</t>
+  </si>
+  <si>
+    <t>tipo medida</t>
   </si>
 </sst>
 </file>
@@ -194,70 +166,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,25 +432,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,168 +469,140 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>500</v>
+      </c>
+      <c r="E4" s="2">
+        <v>800</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
         <v>1500</v>
       </c>
-      <c r="G2" s="2">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="E5" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F5" s="2">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2500</v>
-      </c>
-      <c r="G3" s="2">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2">
-        <v>500</v>
-      </c>
-      <c r="F4" s="2">
-        <v>800</v>
-      </c>
-      <c r="G4" s="2">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1500</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1800</v>
-      </c>
-      <c r="G5" s="2">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2">
-        <v>50</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3000</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3500</v>
-      </c>
-      <c r="G6" s="2">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/excel_ejemplo/catalogo_producto.xlsx
+++ b/excel_ejemplo/catalogo_producto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferro\OneDrive\Escritorio\puntoVenta\excel_ejemplo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9E2650-ED9B-4857-AC69-967478FF5C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008602F4-F509-4AEC-A8DB-37451A3DF714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
